--- a/Competition/data/Outpost.xlsx
+++ b/Competition/data/Outpost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7573F3-4574-4BF0-AD1A-468F0A46A04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1EC665-8CCB-4076-9933-ADC352F7842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5172" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>小型前哨站T10</t>
+  </si>
+  <si>
+    <t>idx_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -465,7 +469,7 @@
     <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -484,8 +488,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -504,8 +511,11 @@
       <c r="F2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -524,8 +534,11 @@
       <c r="F3" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -544,8 +557,11 @@
       <c r="F4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -564,8 +580,11 @@
       <c r="F5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -584,8 +603,11 @@
       <c r="F6" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -604,8 +626,11 @@
       <c r="F7" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -624,8 +649,11 @@
       <c r="F8" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -644,8 +672,11 @@
       <c r="F9" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -664,8 +695,11 @@
       <c r="F10" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -684,8 +718,11 @@
       <c r="F11" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -704,8 +741,11 @@
       <c r="F12" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -724,8 +764,11 @@
       <c r="F13" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -744,8 +787,11 @@
       <c r="F14" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -764,8 +810,11 @@
       <c r="F15" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -784,8 +833,11 @@
       <c r="F16" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -804,8 +856,11 @@
       <c r="F17" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -824,8 +879,11 @@
       <c r="F18" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -844,8 +902,11 @@
       <c r="F19" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -864,8 +925,11 @@
       <c r="F20" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -884,8 +948,11 @@
       <c r="F21" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
     </row>
   </sheetData>

--- a/Competition/data/Outpost.xlsx
+++ b/Competition/data/Outpost.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz\PycharmProject\gym_rl_learn\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1EC665-8CCB-4076-9933-ADC352F7842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="3204" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4284" yWindow="2340" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -179,7 +178,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -958,5 +957,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Competition/data/Outpost.xlsx
+++ b/Competition/data/Outpost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz\PycharmProject\gym_rl_learn\Competition\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytorch\Competition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D8BDD8-DA42-4CF1-A228-C89069B80404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="2340" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="3840" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -178,7 +179,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,11 +456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
